--- a/Dataset/Kaggle/results/ml3/no_best.xlsx
+++ b/Dataset/Kaggle/results/ml3/no_best.xlsx
@@ -488,16 +488,16 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5795029402003766</v>
+        <v>0.6523976549981485</v>
       </c>
       <c r="E2" t="n">
         <v>425.5743982673989</v>
       </c>
       <c r="F2" t="n">
-        <v>15.59733038512018</v>
+        <v>5.740468830768526</v>
       </c>
       <c r="G2" t="n">
-        <v>2.221843937485467</v>
+        <v>2.274017867614939</v>
       </c>
       <c r="H2" t="n">
         <v>0.9308185060687252</v>
@@ -516,19 +516,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5911342609926105</v>
+        <v>0.6976616421548884</v>
       </c>
       <c r="E3" t="n">
         <v>430.8051563726244</v>
       </c>
       <c r="F3" t="n">
-        <v>15.59733038512018</v>
+        <v>5.740468830768526</v>
       </c>
       <c r="G3" t="n">
-        <v>2.237522122131092</v>
+        <v>2.274184864126047</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9328802833539229</v>
+        <v>0.9077739445893602</v>
       </c>
     </row>
     <row r="4">
@@ -544,19 +544,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5911342609926105</v>
+        <v>0.7622187650611084</v>
       </c>
       <c r="E4" t="n">
         <v>432.2079352332154</v>
       </c>
       <c r="F4" t="n">
-        <v>15.59733038512018</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G4" t="n">
-        <v>2.223748561504757</v>
+        <v>2.312185149841326</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9135661098260074</v>
+        <v>0.9027768196033616</v>
       </c>
     </row>
     <row r="5">
@@ -572,19 +572,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8298695891787595</v>
+        <v>0.8077035390956416</v>
       </c>
       <c r="E5" t="n">
         <v>480.9354147466193</v>
       </c>
       <c r="F5" t="n">
-        <v>10.95200491102514</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G5" t="n">
-        <v>2.311874594541182</v>
+        <v>2.310491380676839</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9093741054719803</v>
+        <v>0.9027768196033616</v>
       </c>
     </row>
     <row r="6">
@@ -600,19 +600,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8238091596570924</v>
+        <v>0.8570962420314223</v>
       </c>
       <c r="E6" t="n">
-        <v>614.7376195061562</v>
+        <v>614.3613833194573</v>
       </c>
       <c r="F6" t="n">
-        <v>12.16485231192758</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G6" t="n">
-        <v>2.278406167718365</v>
+        <v>2.310881640662356</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9223048661748533</v>
+        <v>0.9027768196033616</v>
       </c>
     </row>
   </sheetData>
